--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Fall.111220.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Fall.111220.xlsx_with_dialog_acts.xlsx
@@ -517,12 +517,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1747,12 +1747,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1957,12 +1957,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2927,12 +2927,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3179,12 +3179,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3307,12 +3307,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3559,12 +3559,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3643,12 +3643,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3811,12 +3811,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4319,12 +4319,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4529,12 +4529,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4697,12 +4697,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4911,12 +4911,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5505,12 +5505,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5715,12 +5715,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5841,12 +5841,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6013,12 +6013,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6181,12 +6181,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6305,12 +6305,12 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6429,12 +6429,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7057,12 +7057,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7435,12 +7435,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7519,12 +7519,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7645,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8061,12 +8061,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8103,12 +8103,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8145,12 +8145,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8397,12 +8397,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8481,12 +8481,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8607,12 +8607,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9451,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10043,12 +10043,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10127,12 +10127,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11013,12 +11013,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11227,12 +11227,12 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11269,12 +11269,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11697,12 +11697,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11739,12 +11739,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12027,12 +12027,12 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12153,12 +12153,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12321,12 +12321,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12489,12 +12489,12 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12531,12 +12531,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12699,12 +12699,12 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12867,12 +12867,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12909,12 +12909,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13203,12 +13203,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13333,12 +13333,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13459,12 +13459,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14663,12 +14663,12 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14827,12 +14827,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15029,12 +15029,12 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15069,12 +15069,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15225,12 +15225,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15265,12 +15265,12 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15305,12 +15305,12 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15345,12 +15345,12 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15663,12 +15663,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16623,12 +16623,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16663,12 +16663,12 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16743,12 +16743,12 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16823,12 +16823,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16863,12 +16863,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17183,12 +17183,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17263,12 +17263,12 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17343,12 +17343,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17623,12 +17623,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17743,12 +17743,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18063,12 +18063,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19097,12 +19097,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19977,12 +19977,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20057,12 +20057,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
